--- a/CountComparison/CountComparison20.xlsx
+++ b/CountComparison/CountComparison20.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\CountComparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D539D5D-8964-425C-A086-6D9BEEA4DA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2C0A4D-033E-44D5-9508-A77ADBC4AE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7D1C8B96-00A9-4197-9489-E986E032B8B7}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="82">
   <si>
     <t>Image Name</t>
   </si>
@@ -102,19 +102,191 @@
     <t>SAL-4920-A0051_L05S01.bmp</t>
   </si>
   <si>
-    <t>W2 Cell Count - New</t>
-  </si>
-  <si>
-    <t>W2 Cell Count - Original</t>
-  </si>
-  <si>
-    <t>Count Difference</t>
+    <t>W2 Cell Count - Expected</t>
+  </si>
+  <si>
+    <t>W2 Cell Count - Actual</t>
+  </si>
+  <si>
+    <t>W2 Cell Count Difference</t>
+  </si>
+  <si>
+    <t>Lane Noise Ratio Percent - Expected</t>
+  </si>
+  <si>
+    <t>Lane Noise Ratio Percent - Actual</t>
+  </si>
+  <si>
+    <t>Lane Noise Ratio Percent - Difference</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>-0.61</t>
+  </si>
+  <si>
+    <t>31163</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>-0.22</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>-0.63</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>-0.85</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>-0.57</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>-0.34</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>-0.76</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>-0.78</t>
+  </si>
+  <si>
+    <t>2336</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>-0.21</t>
+  </si>
+  <si>
+    <t>23960</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>-0.45</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>-0.36</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>-0.52</t>
+  </si>
+  <si>
+    <t>109005</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>-0.42</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>-0.48</t>
+  </si>
+  <si>
+    <t>22365</t>
+  </si>
+  <si>
+    <t>148034</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>-0.55</t>
+  </si>
+  <si>
+    <t>2374</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>-0.54</t>
+  </si>
+  <si>
+    <t>1366</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>-0.6</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,7 +332,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -248,6 +420,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -255,6 +447,24 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -264,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -285,13 +495,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,342 +823,557 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDFAAD8-CD07-44FC-8F9E-20A76A092ADB}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="19.88671875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.21875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="29.109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="32.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>31163</v>
       </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>103</v>
       </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>361</v>
       </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>283</v>
       </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>62</v>
       </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>253</v>
       </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>481</v>
       </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="4">
         <v>2336</v>
       </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="4">
         <v>23960</v>
       </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="4">
         <v>75</v>
       </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="4">
         <v>125</v>
       </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="4">
         <v>109005</v>
       </c>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="4">
         <v>237</v>
       </c>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="4">
         <v>22365</v>
       </c>
-      <c r="C16" s="9">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="4">
         <v>148034</v>
       </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="4">
         <v>2374</v>
       </c>
-      <c r="C18" s="9">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="4">
         <v>1366</v>
       </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="4">
         <v>86</v>
       </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="4">
         <v>189</v>
       </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
       <c r="C22" s="10"/>
       <c r="D22" s="6"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="19"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
